--- a/2020年1-3月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-3月金源消耗表（财务运营共享版）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.任务包\1.消耗表\2020.03\金源\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26841,9 +26841,9 @@
   </sheetPr>
   <dimension ref="A1:AF187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27032,9 +27032,9 @@
         <v>0</v>
       </c>
       <c r="W2" s="38"/>
-      <c r="X2" s="38" t="str">
-        <f>IF((V2-Z2)&gt;0,V2-Z2,"-")</f>
-        <v>-</v>
+      <c r="X2" s="38">
+        <f>IF(V2-Z2&lt;0,0,IF(N2="返现",MAX(V2-Y2-Z2,0),MAX(V2-Z2,0)))</f>
+        <v>0</v>
       </c>
       <c r="Y2" s="39">
         <f t="shared" ref="Y2:Y9" si="2">T2-V2</f>
@@ -27120,9 +27120,9 @@
         <v>353168.49</v>
       </c>
       <c r="W3" s="38"/>
-      <c r="X3" s="38" t="str">
-        <f t="shared" ref="X3:X66" si="4">IF((V3-Z3)&gt;0,V3-Z3,"-")</f>
-        <v>-</v>
+      <c r="X3" s="38">
+        <f t="shared" ref="X3:X66" si="4">IF(V3-Z3&lt;0,0,IF(N3="返现",MAX(V3-Y3-Z3,0),MAX(V3-Z3,0)))</f>
+        <v>0</v>
       </c>
       <c r="Y3" s="39">
         <v>0</v>
@@ -27209,9 +27209,9 @@
         <v>50788.680000000903</v>
       </c>
       <c r="W4" s="38"/>
-      <c r="X4" s="38" t="str">
+      <c r="X4" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="39">
         <f t="shared" si="2"/>
@@ -27296,9 +27296,9 @@
         <v>14273.92</v>
       </c>
       <c r="W5" s="38"/>
-      <c r="X5" s="38" t="str">
+      <c r="X5" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="39">
         <f t="shared" si="2"/>
@@ -27383,9 +27383,9 @@
         <v>87727.811727272725</v>
       </c>
       <c r="W6" s="38"/>
-      <c r="X6" s="38" t="str">
+      <c r="X6" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="39">
         <f t="shared" si="2"/>
@@ -27470,9 +27470,9 @@
         <v>7161.5489090909086</v>
       </c>
       <c r="W7" s="38"/>
-      <c r="X7" s="38" t="str">
+      <c r="X7" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="39">
         <f t="shared" si="2"/>
@@ -27557,9 +27557,9 @@
         <v>96355.407766990291</v>
       </c>
       <c r="W8" s="38"/>
-      <c r="X8" s="38" t="str">
+      <c r="X8" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="39">
         <f t="shared" si="2"/>
@@ -27648,9 +27648,9 @@
       <c r="W9" s="38">
         <v>48960</v>
       </c>
-      <c r="X9" s="38" t="str">
+      <c r="X9" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="39">
         <f t="shared" si="2"/>
@@ -27734,9 +27734,9 @@
         <v>0</v>
       </c>
       <c r="W10" s="38"/>
-      <c r="X10" s="38" t="str">
+      <c r="X10" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="39">
         <f>V10*O10</f>
@@ -27820,9 +27820,9 @@
         <v>0</v>
       </c>
       <c r="W11" s="38"/>
-      <c r="X11" s="38" t="str">
+      <c r="X11" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="39">
         <f t="shared" ref="Y11:Y57" si="6">T11-V11</f>
@@ -27906,9 +27906,9 @@
         <v>94786.310679611648</v>
       </c>
       <c r="W12" s="38"/>
-      <c r="X12" s="38" t="str">
+      <c r="X12" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="39">
         <f t="shared" si="6"/>
@@ -27993,9 +27993,9 @@
         <v>13602.3</v>
       </c>
       <c r="W13" s="38"/>
-      <c r="X13" s="38" t="str">
+      <c r="X13" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="39">
         <f t="shared" si="6"/>
@@ -28080,9 +28080,9 @@
         <v>0</v>
       </c>
       <c r="W14" s="38"/>
-      <c r="X14" s="38" t="str">
+      <c r="X14" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="39">
         <f t="shared" si="6"/>
@@ -28167,9 +28167,9 @@
         <v>0</v>
       </c>
       <c r="W15" s="38"/>
-      <c r="X15" s="38" t="str">
+      <c r="X15" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="39">
         <f t="shared" si="6"/>
@@ -28341,9 +28341,9 @@
         <v>0</v>
       </c>
       <c r="W17" s="38"/>
-      <c r="X17" s="38" t="str">
+      <c r="X17" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="39">
         <f t="shared" si="6"/>
@@ -28428,9 +28428,9 @@
         <v>0</v>
       </c>
       <c r="W18" s="38"/>
-      <c r="X18" s="38" t="str">
+      <c r="X18" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="39">
         <f t="shared" si="6"/>
@@ -28515,9 +28515,9 @@
         <v>0</v>
       </c>
       <c r="W19" s="38"/>
-      <c r="X19" s="38" t="str">
+      <c r="X19" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="39">
         <f t="shared" si="6"/>
@@ -28602,9 +28602,9 @@
         <v>0</v>
       </c>
       <c r="W20" s="38"/>
-      <c r="X20" s="38" t="str">
+      <c r="X20" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="39">
         <f t="shared" si="6"/>
@@ -28689,9 +28689,9 @@
         <v>0</v>
       </c>
       <c r="W21" s="38"/>
-      <c r="X21" s="38" t="str">
+      <c r="X21" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="39">
         <f t="shared" si="6"/>
@@ -28776,9 +28776,9 @@
         <v>3043.805084745763</v>
       </c>
       <c r="W22" s="38"/>
-      <c r="X22" s="38" t="str">
+      <c r="X22" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="39">
         <f t="shared" si="6"/>
@@ -28863,9 +28863,9 @@
         <v>0</v>
       </c>
       <c r="W23" s="38"/>
-      <c r="X23" s="38" t="str">
+      <c r="X23" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="39">
         <f t="shared" si="6"/>
@@ -28950,9 +28950,9 @@
         <v>0</v>
       </c>
       <c r="W24" s="38"/>
-      <c r="X24" s="38" t="str">
+      <c r="X24" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="39">
         <f t="shared" si="6"/>
@@ -29037,9 +29037,9 @@
         <v>0</v>
       </c>
       <c r="W25" s="38"/>
-      <c r="X25" s="38" t="str">
+      <c r="X25" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="39">
         <f t="shared" si="6"/>
@@ -29124,9 +29124,9 @@
         <v>0</v>
       </c>
       <c r="W26" s="38"/>
-      <c r="X26" s="38" t="str">
+      <c r="X26" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="39">
         <f t="shared" si="6"/>
@@ -29211,9 +29211,9 @@
         <v>0</v>
       </c>
       <c r="W27" s="38"/>
-      <c r="X27" s="38" t="str">
+      <c r="X27" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="39">
         <f t="shared" si="6"/>
@@ -29298,9 +29298,9 @@
         <v>0</v>
       </c>
       <c r="W28" s="38"/>
-      <c r="X28" s="38" t="str">
+      <c r="X28" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="39">
         <f t="shared" si="6"/>
@@ -29385,9 +29385,9 @@
         <v>0</v>
       </c>
       <c r="W29" s="38"/>
-      <c r="X29" s="38" t="str">
+      <c r="X29" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="39">
         <f t="shared" si="6"/>
@@ -29472,9 +29472,9 @@
         <v>0</v>
       </c>
       <c r="W30" s="38"/>
-      <c r="X30" s="38" t="str">
+      <c r="X30" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="39">
         <f t="shared" si="6"/>
@@ -29559,9 +29559,9 @@
         <v>0</v>
       </c>
       <c r="W31" s="38"/>
-      <c r="X31" s="38" t="str">
+      <c r="X31" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="39">
         <f t="shared" si="6"/>
@@ -29646,9 +29646,9 @@
         <v>0</v>
       </c>
       <c r="W32" s="38"/>
-      <c r="X32" s="38" t="str">
+      <c r="X32" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="39">
         <f t="shared" si="6"/>
@@ -29733,9 +29733,9 @@
         <v>0</v>
       </c>
       <c r="W33" s="38"/>
-      <c r="X33" s="38" t="str">
+      <c r="X33" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="39">
         <f t="shared" si="6"/>
@@ -29820,9 +29820,9 @@
         <v>0</v>
       </c>
       <c r="W34" s="38"/>
-      <c r="X34" s="38" t="str">
+      <c r="X34" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="39">
         <f t="shared" si="6"/>
@@ -29907,9 +29907,9 @@
         <v>0</v>
       </c>
       <c r="W35" s="38"/>
-      <c r="X35" s="38" t="str">
+      <c r="X35" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="39">
         <f t="shared" si="6"/>
@@ -29994,9 +29994,9 @@
         <v>0</v>
       </c>
       <c r="W36" s="38"/>
-      <c r="X36" s="38" t="str">
+      <c r="X36" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="39">
         <f t="shared" si="6"/>
@@ -30081,9 +30081,9 @@
         <v>0</v>
       </c>
       <c r="W37" s="38"/>
-      <c r="X37" s="38" t="str">
+      <c r="X37" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="39">
         <f t="shared" si="6"/>
@@ -30168,9 +30168,9 @@
         <v>0</v>
       </c>
       <c r="W38" s="38"/>
-      <c r="X38" s="38" t="str">
+      <c r="X38" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="39">
         <f t="shared" si="6"/>
@@ -30255,9 +30255,9 @@
         <v>0</v>
       </c>
       <c r="W39" s="38"/>
-      <c r="X39" s="38" t="str">
+      <c r="X39" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="39">
         <f t="shared" si="6"/>
@@ -30342,9 +30342,9 @@
         <v>0</v>
       </c>
       <c r="W40" s="38"/>
-      <c r="X40" s="38" t="str">
+      <c r="X40" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="39">
         <f t="shared" si="6"/>
@@ -30429,9 +30429,9 @@
         <v>0</v>
       </c>
       <c r="W41" s="38"/>
-      <c r="X41" s="38" t="str">
+      <c r="X41" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="39">
         <f t="shared" si="6"/>
@@ -30516,9 +30516,9 @@
         <v>0</v>
       </c>
       <c r="W42" s="38"/>
-      <c r="X42" s="38" t="str">
+      <c r="X42" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="39">
         <f t="shared" si="6"/>
@@ -30603,9 +30603,9 @@
         <v>0</v>
       </c>
       <c r="W43" s="38"/>
-      <c r="X43" s="38" t="str">
+      <c r="X43" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="6"/>
@@ -30690,9 +30690,9 @@
         <v>0</v>
       </c>
       <c r="W44" s="38"/>
-      <c r="X44" s="38" t="str">
+      <c r="X44" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="39">
         <f t="shared" si="6"/>
@@ -30777,9 +30777,9 @@
         <v>0</v>
       </c>
       <c r="W45" s="38"/>
-      <c r="X45" s="38" t="str">
+      <c r="X45" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="39">
         <f t="shared" si="6"/>
@@ -30864,9 +30864,9 @@
         <v>0</v>
       </c>
       <c r="W46" s="38"/>
-      <c r="X46" s="38" t="str">
+      <c r="X46" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="39">
         <f t="shared" si="6"/>
@@ -30951,9 +30951,9 @@
         <v>0</v>
       </c>
       <c r="W47" s="38"/>
-      <c r="X47" s="38" t="str">
+      <c r="X47" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="39">
         <f t="shared" si="6"/>
@@ -31038,9 +31038,9 @@
         <v>0</v>
       </c>
       <c r="W48" s="38"/>
-      <c r="X48" s="38" t="str">
+      <c r="X48" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="39">
         <f t="shared" si="6"/>
@@ -31125,9 +31125,9 @@
         <v>0</v>
       </c>
       <c r="W49" s="38"/>
-      <c r="X49" s="38" t="str">
+      <c r="X49" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="39">
         <f t="shared" si="6"/>
@@ -31212,9 +31212,9 @@
         <v>0</v>
       </c>
       <c r="W50" s="38"/>
-      <c r="X50" s="38" t="str">
+      <c r="X50" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="39">
         <f t="shared" si="6"/>
@@ -31299,9 +31299,9 @@
         <v>0</v>
       </c>
       <c r="W51" s="38"/>
-      <c r="X51" s="38" t="str">
+      <c r="X51" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="39">
         <f t="shared" si="6"/>
@@ -31386,9 +31386,9 @@
         <v>0</v>
       </c>
       <c r="W52" s="38"/>
-      <c r="X52" s="38" t="str">
+      <c r="X52" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="39">
         <f t="shared" si="6"/>
@@ -31473,9 +31473,9 @@
         <v>12518.57</v>
       </c>
       <c r="W53" s="38"/>
-      <c r="X53" s="38" t="str">
+      <c r="X53" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="39">
         <f t="shared" si="6"/>
@@ -31560,9 +31560,9 @@
         <v>722.19</v>
       </c>
       <c r="W54" s="38"/>
-      <c r="X54" s="38" t="str">
+      <c r="X54" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="39">
         <f t="shared" si="6"/>
@@ -31647,9 +31647,9 @@
         <v>0</v>
       </c>
       <c r="W55" s="38"/>
-      <c r="X55" s="38" t="str">
+      <c r="X55" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="39">
         <f t="shared" si="6"/>
@@ -31735,9 +31735,9 @@
         <v>256760</v>
       </c>
       <c r="W56" s="38"/>
-      <c r="X56" s="38" t="str">
+      <c r="X56" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="39">
         <f t="shared" si="6"/>
@@ -31913,9 +31913,9 @@
         <v>0</v>
       </c>
       <c r="W58" s="38"/>
-      <c r="X58" s="38" t="str">
+      <c r="X58" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="39">
         <f>U58-V58</f>
@@ -32001,9 +32001,9 @@
         <v>0</v>
       </c>
       <c r="W59" s="38"/>
-      <c r="X59" s="38" t="str">
+      <c r="X59" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="39">
         <v>0</v>
@@ -32090,9 +32090,9 @@
         <v>0</v>
       </c>
       <c r="W60" s="40"/>
-      <c r="X60" s="38" t="str">
+      <c r="X60" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="42">
         <f>T60-V60</f>
@@ -32178,9 +32178,9 @@
         <v>9929405.9600000009</v>
       </c>
       <c r="W61" s="38"/>
-      <c r="X61" s="38" t="str">
+      <c r="X61" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="39">
         <v>0</v>
@@ -32265,9 +32265,9 @@
         <v>3177900</v>
       </c>
       <c r="W62" s="38"/>
-      <c r="X62" s="38" t="str">
+      <c r="X62" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="39">
         <v>0</v>
@@ -32352,9 +32352,9 @@
         <v>18711000</v>
       </c>
       <c r="W63" s="38"/>
-      <c r="X63" s="38" t="str">
+      <c r="X63" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="39">
         <v>0</v>
@@ -32435,9 +32435,9 @@
         <v>6789.9019607843102</v>
       </c>
       <c r="W64" s="46"/>
-      <c r="X64" s="38" t="str">
+      <c r="X64" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="45"/>
       <c r="Z64" s="45">
@@ -32516,9 +32516,9 @@
         <v>-6925.7</v>
       </c>
       <c r="W65" s="46"/>
-      <c r="X65" s="38" t="str">
+      <c r="X65" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="45"/>
       <c r="Z65" s="45">
@@ -32599,9 +32599,9 @@
         <v>247.43269230769201</v>
       </c>
       <c r="W66" s="46"/>
-      <c r="X66" s="38" t="str">
+      <c r="X66" s="38">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="45"/>
       <c r="Z66" s="45">
@@ -32684,9 +32684,9 @@
         <v>700000</v>
       </c>
       <c r="W67" s="45"/>
-      <c r="X67" s="38" t="str">
-        <f t="shared" ref="X67:X130" si="9">IF((V67-Z67)&gt;0,V67-Z67,"-")</f>
-        <v>-</v>
+      <c r="X67" s="38">
+        <f t="shared" ref="X67:X130" si="9">IF(V67-Z67&lt;0,0,IF(N67="返现",MAX(V67-Y67-Z67,0),MAX(V67-Z67,0)))</f>
+        <v>0</v>
       </c>
       <c r="Y67" s="55"/>
       <c r="Z67" s="45">
@@ -32771,9 +32771,9 @@
         <v>3139374.4436599999</v>
       </c>
       <c r="W68" s="45"/>
-      <c r="X68" s="38" t="str">
+      <c r="X68" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="55"/>
       <c r="Z68" s="45">
@@ -32858,9 +32858,9 @@
         <v>1511691.35</v>
       </c>
       <c r="W69" s="45"/>
-      <c r="X69" s="38" t="str">
+      <c r="X69" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="55"/>
       <c r="Z69" s="45">
@@ -32945,9 +32945,9 @@
       <c r="W70" s="44">
         <v>9216</v>
       </c>
-      <c r="X70" s="38" t="str">
+      <c r="X70" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="54"/>
       <c r="Z70" s="44">
@@ -33032,9 +33032,9 @@
         <v>0</v>
       </c>
       <c r="W71" s="36"/>
-      <c r="X71" s="38" t="str">
+      <c r="X71" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="36">
         <f>T71-V71</f>
@@ -33122,7 +33122,7 @@
       <c r="W72" s="36"/>
       <c r="X72" s="38">
         <f t="shared" si="9"/>
-        <v>370657</v>
+        <v>361761.24</v>
       </c>
       <c r="Y72" s="36">
         <v>8895.76</v>
@@ -33207,9 +33207,9 @@
         <v>74015.139248121297</v>
       </c>
       <c r="W73" s="36"/>
-      <c r="X73" s="38" t="str">
+      <c r="X73" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="36">
         <f t="shared" ref="Y73:Y121" si="13">T73-V73</f>
@@ -33298,9 +33298,9 @@
       <c r="W74" s="36">
         <v>48960</v>
       </c>
-      <c r="X74" s="38" t="str">
+      <c r="X74" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="36">
         <f t="shared" si="13"/>
@@ -33385,9 +33385,9 @@
         <v>0</v>
       </c>
       <c r="W75" s="36"/>
-      <c r="X75" s="38" t="str">
+      <c r="X75" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="36">
         <f t="shared" si="13"/>
@@ -33472,9 +33472,9 @@
         <v>0</v>
       </c>
       <c r="W76" s="36"/>
-      <c r="X76" s="38" t="str">
+      <c r="X76" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="36">
         <f t="shared" si="13"/>
@@ -33559,9 +33559,9 @@
         <v>0</v>
       </c>
       <c r="W77" s="36"/>
-      <c r="X77" s="38" t="str">
+      <c r="X77" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="36">
         <f t="shared" si="13"/>
@@ -33646,9 +33646,9 @@
         <v>0</v>
       </c>
       <c r="W78" s="36"/>
-      <c r="X78" s="38" t="str">
+      <c r="X78" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="36">
         <f t="shared" si="13"/>
@@ -33733,9 +33733,9 @@
         <v>0</v>
       </c>
       <c r="W79" s="36"/>
-      <c r="X79" s="38" t="str">
+      <c r="X79" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y79" s="36">
         <f t="shared" si="13"/>
@@ -33820,9 +33820,9 @@
         <v>0</v>
       </c>
       <c r="W80" s="36"/>
-      <c r="X80" s="38" t="str">
+      <c r="X80" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="36">
         <f t="shared" si="13"/>
@@ -33907,9 +33907,9 @@
         <v>73.150000000000006</v>
       </c>
       <c r="W81" s="36"/>
-      <c r="X81" s="38" t="str">
+      <c r="X81" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="36">
         <f t="shared" si="13"/>
@@ -33996,9 +33996,9 @@
         <v>0</v>
       </c>
       <c r="W82" s="36"/>
-      <c r="X82" s="38" t="str">
+      <c r="X82" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="36">
         <f t="shared" si="13"/>
@@ -34083,9 +34083,9 @@
         <v>0</v>
       </c>
       <c r="W83" s="36"/>
-      <c r="X83" s="38" t="str">
+      <c r="X83" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="36">
         <f t="shared" si="13"/>
@@ -34170,9 +34170,9 @@
         <v>0</v>
       </c>
       <c r="W84" s="36"/>
-      <c r="X84" s="38" t="str">
+      <c r="X84" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y84" s="36">
         <f t="shared" si="13"/>
@@ -34257,9 +34257,9 @@
         <v>0</v>
       </c>
       <c r="W85" s="36"/>
-      <c r="X85" s="38" t="str">
+      <c r="X85" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y85" s="36">
         <f t="shared" si="13"/>
@@ -34344,9 +34344,9 @@
         <v>28004.028451882841</v>
       </c>
       <c r="W86" s="36"/>
-      <c r="X86" s="38" t="str">
+      <c r="X86" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="36">
         <f t="shared" si="13"/>
@@ -34431,9 +34431,9 @@
         <v>0</v>
       </c>
       <c r="W87" s="36"/>
-      <c r="X87" s="38" t="str">
+      <c r="X87" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="36">
         <f t="shared" si="13"/>
@@ -34518,9 +34518,9 @@
         <v>0</v>
       </c>
       <c r="W88" s="36"/>
-      <c r="X88" s="38" t="str">
+      <c r="X88" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y88" s="36">
         <f t="shared" si="13"/>
@@ -34605,9 +34605,9 @@
         <v>0</v>
       </c>
       <c r="W89" s="36"/>
-      <c r="X89" s="38" t="str">
+      <c r="X89" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="36">
         <f t="shared" si="13"/>
@@ -34692,9 +34692,9 @@
         <v>0</v>
       </c>
       <c r="W90" s="36"/>
-      <c r="X90" s="38" t="str">
+      <c r="X90" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y90" s="36">
         <f t="shared" si="13"/>
@@ -34779,9 +34779,9 @@
         <v>0</v>
       </c>
       <c r="W91" s="36"/>
-      <c r="X91" s="38" t="str">
+      <c r="X91" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="36">
         <f t="shared" si="13"/>
@@ -34866,9 +34866,9 @@
         <v>0</v>
       </c>
       <c r="W92" s="36"/>
-      <c r="X92" s="38" t="str">
+      <c r="X92" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y92" s="36">
         <f t="shared" si="13"/>
@@ -34953,9 +34953,9 @@
         <v>0</v>
       </c>
       <c r="W93" s="36"/>
-      <c r="X93" s="38" t="str">
+      <c r="X93" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y93" s="36">
         <f t="shared" si="13"/>
@@ -35040,9 +35040,9 @@
         <v>0</v>
       </c>
       <c r="W94" s="36"/>
-      <c r="X94" s="38" t="str">
+      <c r="X94" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="36">
         <f t="shared" si="13"/>
@@ -35127,9 +35127,9 @@
         <v>0</v>
       </c>
       <c r="W95" s="36"/>
-      <c r="X95" s="38" t="str">
+      <c r="X95" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y95" s="36">
         <f t="shared" si="13"/>
@@ -35214,9 +35214,9 @@
         <v>0</v>
       </c>
       <c r="W96" s="36"/>
-      <c r="X96" s="38" t="str">
+      <c r="X96" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="36">
         <f t="shared" si="13"/>
@@ -35301,9 +35301,9 @@
         <v>0</v>
       </c>
       <c r="W97" s="36"/>
-      <c r="X97" s="38" t="str">
+      <c r="X97" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y97" s="36">
         <f t="shared" si="13"/>
@@ -35388,9 +35388,9 @@
         <v>0</v>
       </c>
       <c r="W98" s="36"/>
-      <c r="X98" s="38" t="str">
+      <c r="X98" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y98" s="36">
         <f t="shared" si="13"/>
@@ -35475,9 +35475,9 @@
         <v>0</v>
       </c>
       <c r="W99" s="36"/>
-      <c r="X99" s="38" t="str">
+      <c r="X99" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y99" s="36">
         <f t="shared" si="13"/>
@@ -35562,9 +35562,9 @@
         <v>0</v>
       </c>
       <c r="W100" s="36"/>
-      <c r="X100" s="38" t="str">
+      <c r="X100" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="36">
         <f t="shared" si="13"/>
@@ -35649,9 +35649,9 @@
         <v>0</v>
       </c>
       <c r="W101" s="36"/>
-      <c r="X101" s="38" t="str">
+      <c r="X101" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="36">
         <f t="shared" si="13"/>
@@ -35736,9 +35736,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="36"/>
-      <c r="X102" s="38" t="str">
+      <c r="X102" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="36">
         <f t="shared" si="13"/>
@@ -35823,9 +35823,9 @@
         <v>0</v>
       </c>
       <c r="W103" s="36"/>
-      <c r="X103" s="38" t="str">
+      <c r="X103" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y103" s="36">
         <f t="shared" si="13"/>
@@ -35910,9 +35910,9 @@
         <v>0</v>
       </c>
       <c r="W104" s="36"/>
-      <c r="X104" s="38" t="str">
+      <c r="X104" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y104" s="36">
         <f t="shared" si="13"/>
@@ -35997,9 +35997,9 @@
         <v>0</v>
       </c>
       <c r="W105" s="36"/>
-      <c r="X105" s="38" t="str">
+      <c r="X105" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y105" s="36">
         <f t="shared" si="13"/>
@@ -36084,9 +36084,9 @@
         <v>0</v>
       </c>
       <c r="W106" s="36"/>
-      <c r="X106" s="38" t="str">
+      <c r="X106" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y106" s="36">
         <f t="shared" si="13"/>
@@ -36171,9 +36171,9 @@
         <v>0</v>
       </c>
       <c r="W107" s="36"/>
-      <c r="X107" s="38" t="str">
+      <c r="X107" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y107" s="36">
         <f t="shared" si="13"/>
@@ -36258,9 +36258,9 @@
         <v>0</v>
       </c>
       <c r="W108" s="36"/>
-      <c r="X108" s="38" t="str">
+      <c r="X108" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y108" s="36">
         <f t="shared" si="13"/>
@@ -36345,9 +36345,9 @@
         <v>0</v>
       </c>
       <c r="W109" s="36"/>
-      <c r="X109" s="38" t="str">
+      <c r="X109" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y109" s="36">
         <f t="shared" si="13"/>
@@ -36432,9 +36432,9 @@
         <v>0</v>
       </c>
       <c r="W110" s="36"/>
-      <c r="X110" s="38" t="str">
+      <c r="X110" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y110" s="36">
         <f t="shared" si="13"/>
@@ -36519,9 +36519,9 @@
         <v>0</v>
       </c>
       <c r="W111" s="36"/>
-      <c r="X111" s="38" t="str">
+      <c r="X111" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y111" s="36">
         <f t="shared" si="13"/>
@@ -36606,9 +36606,9 @@
         <v>0</v>
       </c>
       <c r="W112" s="36"/>
-      <c r="X112" s="38" t="str">
+      <c r="X112" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y112" s="36">
         <f t="shared" si="13"/>
@@ -36693,9 +36693,9 @@
         <v>0</v>
       </c>
       <c r="W113" s="36"/>
-      <c r="X113" s="38" t="str">
+      <c r="X113" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y113" s="36">
         <f t="shared" si="13"/>
@@ -36780,9 +36780,9 @@
         <v>0</v>
       </c>
       <c r="W114" s="36"/>
-      <c r="X114" s="38" t="str">
+      <c r="X114" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y114" s="36">
         <f t="shared" si="13"/>
@@ -36867,9 +36867,9 @@
         <v>0</v>
       </c>
       <c r="W115" s="36"/>
-      <c r="X115" s="38" t="str">
+      <c r="X115" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y115" s="36">
         <f t="shared" si="13"/>
@@ -36954,9 +36954,9 @@
         <v>0</v>
       </c>
       <c r="W116" s="36"/>
-      <c r="X116" s="38" t="str">
+      <c r="X116" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y116" s="36">
         <f t="shared" si="13"/>
@@ -37041,9 +37041,9 @@
         <v>0</v>
       </c>
       <c r="W117" s="36"/>
-      <c r="X117" s="38" t="str">
+      <c r="X117" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y117" s="36">
         <f t="shared" si="13"/>
@@ -37128,9 +37128,9 @@
         <v>7458.79</v>
       </c>
       <c r="W118" s="36"/>
-      <c r="X118" s="38" t="str">
+      <c r="X118" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y118" s="36">
         <f t="shared" si="13"/>
@@ -37215,9 +37215,9 @@
         <v>0</v>
       </c>
       <c r="W119" s="36"/>
-      <c r="X119" s="38" t="str">
+      <c r="X119" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y119" s="36">
         <f t="shared" si="13"/>
@@ -37302,9 +37302,9 @@
         <v>0</v>
       </c>
       <c r="W120" s="36"/>
-      <c r="X120" s="38" t="str">
+      <c r="X120" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y120" s="36">
         <f t="shared" si="13"/>
@@ -37389,9 +37389,9 @@
         <v>20.87</v>
       </c>
       <c r="W121" s="36"/>
-      <c r="X121" s="38" t="str">
+      <c r="X121" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y121" s="36">
         <f t="shared" si="13"/>
@@ -37571,9 +37571,9 @@
         <v>0</v>
       </c>
       <c r="W123" s="36"/>
-      <c r="X123" s="38" t="str">
+      <c r="X123" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y123" s="36">
         <f>T123-V123</f>
@@ -37660,9 +37660,9 @@
         <v>0</v>
       </c>
       <c r="W124" s="36"/>
-      <c r="X124" s="38" t="str">
+      <c r="X124" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y124" s="36">
         <f>T124-V124</f>
@@ -37748,9 +37748,9 @@
         <v>0</v>
       </c>
       <c r="W125" s="40"/>
-      <c r="X125" s="38" t="str">
+      <c r="X125" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y125" s="40">
         <v>0</v>
@@ -37837,9 +37837,9 @@
         <v>2940594.06</v>
       </c>
       <c r="W126" s="40"/>
-      <c r="X126" s="38" t="str">
+      <c r="X126" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y126" s="40">
         <v>0</v>
@@ -37926,9 +37926,9 @@
         <v>25839000</v>
       </c>
       <c r="W127" s="40"/>
-      <c r="X127" s="38" t="str">
+      <c r="X127" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y127" s="40">
         <v>0</v>
@@ -38012,9 +38012,9 @@
       <c r="W128" s="77">
         <v>9216</v>
       </c>
-      <c r="X128" s="38" t="str">
+      <c r="X128" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y128" s="77">
         <f t="shared" ref="Y128" si="14">T128-V128</f>
@@ -38102,9 +38102,9 @@
         <v>0</v>
       </c>
       <c r="W129" s="39"/>
-      <c r="X129" s="38" t="str">
+      <c r="X129" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y129" s="83">
         <f>V129*O129</f>
@@ -38195,9 +38195,9 @@
       <c r="W130" s="39">
         <v>48960</v>
       </c>
-      <c r="X130" s="38" t="str">
+      <c r="X130" s="38">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y130" s="39">
         <f>T130-V130</f>
@@ -38284,9 +38284,9 @@
         <v>0</v>
       </c>
       <c r="W131" s="39"/>
-      <c r="X131" s="38" t="str">
-        <f t="shared" ref="X131:X180" si="18">IF((V131-Z131)&gt;0,V131-Z131,"-")</f>
-        <v>-</v>
+      <c r="X131" s="38">
+        <f t="shared" ref="X131:X180" si="18">IF(V131-Z131&lt;0,0,IF(N131="返现",MAX(V131-Y131-Z131,0),MAX(V131-Z131,0)))</f>
+        <v>0</v>
       </c>
       <c r="Y131" s="39">
         <f>T131-V131</f>
@@ -38374,7 +38374,7 @@
       <c r="W132" s="39"/>
       <c r="X132" s="38">
         <f t="shared" si="18"/>
-        <v>240927</v>
+        <v>235144.76</v>
       </c>
       <c r="Y132" s="83">
         <v>5782.24</v>
@@ -38457,9 +38457,9 @@
         <v>0</v>
       </c>
       <c r="W133" s="39"/>
-      <c r="X133" s="38" t="str">
+      <c r="X133" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y133" s="39">
         <f t="shared" ref="Y133:Y176" si="19">T133-V133</f>
@@ -38544,9 +38544,9 @@
         <v>0</v>
       </c>
       <c r="W134" s="39"/>
-      <c r="X134" s="38" t="str">
+      <c r="X134" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y134" s="39">
         <f t="shared" si="19"/>
@@ -38631,9 +38631,9 @@
         <v>0</v>
       </c>
       <c r="W135" s="39"/>
-      <c r="X135" s="38" t="str">
+      <c r="X135" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y135" s="39">
         <f t="shared" si="19"/>
@@ -38718,9 +38718,9 @@
         <v>0</v>
       </c>
       <c r="W136" s="39"/>
-      <c r="X136" s="38" t="str">
+      <c r="X136" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y136" s="39">
         <f t="shared" si="19"/>
@@ -38805,9 +38805,9 @@
         <v>0</v>
       </c>
       <c r="W137" s="39"/>
-      <c r="X137" s="38" t="str">
+      <c r="X137" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y137" s="39">
         <f t="shared" si="19"/>
@@ -38892,9 +38892,9 @@
         <v>0</v>
       </c>
       <c r="W138" s="39"/>
-      <c r="X138" s="38" t="str">
+      <c r="X138" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y138" s="39">
         <f t="shared" si="19"/>
@@ -38979,9 +38979,9 @@
         <v>84.239999999999981</v>
       </c>
       <c r="W139" s="39"/>
-      <c r="X139" s="38" t="str">
+      <c r="X139" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y139" s="39">
         <f t="shared" si="19"/>
@@ -39066,9 +39066,9 @@
         <v>0</v>
       </c>
       <c r="W140" s="39"/>
-      <c r="X140" s="38" t="str">
+      <c r="X140" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y140" s="39">
         <f t="shared" si="19"/>
@@ -39153,9 +39153,9 @@
         <v>0</v>
       </c>
       <c r="W141" s="39"/>
-      <c r="X141" s="38" t="str">
+      <c r="X141" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y141" s="39">
         <f t="shared" si="19"/>
@@ -39240,9 +39240,9 @@
         <v>0</v>
       </c>
       <c r="W142" s="39"/>
-      <c r="X142" s="38" t="str">
+      <c r="X142" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y142" s="39">
         <f t="shared" si="19"/>
@@ -39327,9 +39327,9 @@
         <v>14869.015230125526</v>
       </c>
       <c r="W143" s="39"/>
-      <c r="X143" s="38" t="str">
+      <c r="X143" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y143" s="39">
         <f t="shared" si="19"/>
@@ -39414,9 +39414,9 @@
         <v>0</v>
       </c>
       <c r="W144" s="39"/>
-      <c r="X144" s="38" t="str">
+      <c r="X144" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y144" s="39">
         <f t="shared" si="19"/>
@@ -39501,9 +39501,9 @@
         <v>0</v>
       </c>
       <c r="W145" s="39"/>
-      <c r="X145" s="38" t="str">
+      <c r="X145" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y145" s="39">
         <f t="shared" si="19"/>
@@ -39588,9 +39588,9 @@
         <v>0</v>
       </c>
       <c r="W146" s="39"/>
-      <c r="X146" s="38" t="str">
+      <c r="X146" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y146" s="39">
         <f t="shared" si="19"/>
@@ -39675,9 +39675,9 @@
         <v>0</v>
       </c>
       <c r="W147" s="39"/>
-      <c r="X147" s="38" t="str">
+      <c r="X147" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y147" s="39">
         <f t="shared" si="19"/>
@@ -39762,9 +39762,9 @@
         <v>0</v>
       </c>
       <c r="W148" s="39"/>
-      <c r="X148" s="38" t="str">
+      <c r="X148" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y148" s="39">
         <f t="shared" si="19"/>
@@ -39849,9 +39849,9 @@
         <v>0</v>
       </c>
       <c r="W149" s="39"/>
-      <c r="X149" s="38" t="str">
+      <c r="X149" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y149" s="39">
         <f t="shared" si="19"/>
@@ -39936,9 +39936,9 @@
         <v>0</v>
       </c>
       <c r="W150" s="39"/>
-      <c r="X150" s="38" t="str">
+      <c r="X150" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y150" s="39">
         <f t="shared" si="19"/>
@@ -40023,9 +40023,9 @@
         <v>0</v>
       </c>
       <c r="W151" s="39"/>
-      <c r="X151" s="38" t="str">
+      <c r="X151" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y151" s="39">
         <f t="shared" si="19"/>
@@ -40110,9 +40110,9 @@
         <v>0</v>
       </c>
       <c r="W152" s="39"/>
-      <c r="X152" s="38" t="str">
+      <c r="X152" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y152" s="39">
         <f t="shared" si="19"/>
@@ -40197,9 +40197,9 @@
         <v>0</v>
       </c>
       <c r="W153" s="39"/>
-      <c r="X153" s="38" t="str">
+      <c r="X153" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y153" s="39">
         <f t="shared" si="19"/>
@@ -40284,9 +40284,9 @@
         <v>0</v>
       </c>
       <c r="W154" s="39"/>
-      <c r="X154" s="38" t="str">
+      <c r="X154" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y154" s="39">
         <f t="shared" si="19"/>
@@ -40371,9 +40371,9 @@
         <v>0</v>
       </c>
       <c r="W155" s="39"/>
-      <c r="X155" s="38" t="str">
+      <c r="X155" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y155" s="39">
         <f t="shared" si="19"/>
@@ -40458,9 +40458,9 @@
         <v>0</v>
       </c>
       <c r="W156" s="39"/>
-      <c r="X156" s="38" t="str">
+      <c r="X156" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y156" s="39">
         <f t="shared" si="19"/>
@@ -40545,9 +40545,9 @@
         <v>0</v>
       </c>
       <c r="W157" s="39"/>
-      <c r="X157" s="38" t="str">
+      <c r="X157" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y157" s="39">
         <f t="shared" si="19"/>
@@ -40632,9 +40632,9 @@
         <v>0</v>
       </c>
       <c r="W158" s="39"/>
-      <c r="X158" s="38" t="str">
+      <c r="X158" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y158" s="39">
         <f t="shared" si="19"/>
@@ -40719,9 +40719,9 @@
         <v>0</v>
       </c>
       <c r="W159" s="39"/>
-      <c r="X159" s="38" t="str">
+      <c r="X159" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y159" s="39">
         <f t="shared" si="19"/>
@@ -40806,9 +40806,9 @@
         <v>0</v>
       </c>
       <c r="W160" s="39"/>
-      <c r="X160" s="38" t="str">
+      <c r="X160" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y160" s="39">
         <f t="shared" si="19"/>
@@ -40893,9 +40893,9 @@
         <v>0</v>
       </c>
       <c r="W161" s="39"/>
-      <c r="X161" s="38" t="str">
+      <c r="X161" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y161" s="39">
         <f t="shared" si="19"/>
@@ -40980,9 +40980,9 @@
         <v>0</v>
       </c>
       <c r="W162" s="39"/>
-      <c r="X162" s="38" t="str">
+      <c r="X162" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y162" s="39">
         <f t="shared" si="19"/>
@@ -41067,9 +41067,9 @@
         <v>0</v>
       </c>
       <c r="W163" s="39"/>
-      <c r="X163" s="38" t="str">
+      <c r="X163" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y163" s="39">
         <f t="shared" si="19"/>
@@ -41154,9 +41154,9 @@
         <v>0</v>
       </c>
       <c r="W164" s="39"/>
-      <c r="X164" s="38" t="str">
+      <c r="X164" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y164" s="39">
         <f t="shared" si="19"/>
@@ -41241,9 +41241,9 @@
         <v>0</v>
       </c>
       <c r="W165" s="39"/>
-      <c r="X165" s="38" t="str">
+      <c r="X165" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y165" s="39">
         <f t="shared" si="19"/>
@@ -41328,9 +41328,9 @@
         <v>0</v>
       </c>
       <c r="W166" s="39"/>
-      <c r="X166" s="38" t="str">
+      <c r="X166" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y166" s="39">
         <f t="shared" si="19"/>
@@ -41415,9 +41415,9 @@
         <v>0</v>
       </c>
       <c r="W167" s="39"/>
-      <c r="X167" s="38" t="str">
+      <c r="X167" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y167" s="39">
         <f t="shared" si="19"/>
@@ -41502,9 +41502,9 @@
         <v>0</v>
       </c>
       <c r="W168" s="39"/>
-      <c r="X168" s="38" t="str">
+      <c r="X168" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y168" s="39">
         <f t="shared" si="19"/>
@@ -41589,9 +41589,9 @@
         <v>0</v>
       </c>
       <c r="W169" s="39"/>
-      <c r="X169" s="38" t="str">
+      <c r="X169" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y169" s="39">
         <f t="shared" si="19"/>
@@ -41676,9 +41676,9 @@
         <v>0</v>
       </c>
       <c r="W170" s="39"/>
-      <c r="X170" s="38" t="str">
+      <c r="X170" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y170" s="39">
         <f t="shared" si="19"/>
@@ -41763,9 +41763,9 @@
         <v>0</v>
       </c>
       <c r="W171" s="39"/>
-      <c r="X171" s="38" t="str">
+      <c r="X171" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y171" s="39">
         <f t="shared" si="19"/>
@@ -41850,9 +41850,9 @@
         <v>0</v>
       </c>
       <c r="W172" s="39"/>
-      <c r="X172" s="38" t="str">
+      <c r="X172" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y172" s="39">
         <f t="shared" si="19"/>
@@ -41937,9 +41937,9 @@
         <v>0</v>
       </c>
       <c r="W173" s="39"/>
-      <c r="X173" s="38" t="str">
+      <c r="X173" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y173" s="39">
         <f t="shared" si="19"/>
@@ -42024,9 +42024,9 @@
         <v>0</v>
       </c>
       <c r="W174" s="39"/>
-      <c r="X174" s="38" t="str">
+      <c r="X174" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y174" s="39">
         <f t="shared" si="19"/>
@@ -42111,9 +42111,9 @@
         <v>0</v>
       </c>
       <c r="W175" s="39"/>
-      <c r="X175" s="38" t="str">
+      <c r="X175" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y175" s="39">
         <f t="shared" si="19"/>
@@ -42198,9 +42198,9 @@
         <v>0</v>
       </c>
       <c r="W176" s="39"/>
-      <c r="X176" s="38" t="str">
+      <c r="X176" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y176" s="39">
         <f t="shared" si="19"/>
@@ -42376,9 +42376,9 @@
         <v>0</v>
       </c>
       <c r="W178" s="39"/>
-      <c r="X178" s="38" t="str">
+      <c r="X178" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y178" s="39">
         <f>T178-V178</f>
@@ -42465,9 +42465,9 @@
         <v>0</v>
       </c>
       <c r="W179" s="39"/>
-      <c r="X179" s="38" t="str">
+      <c r="X179" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y179" s="39">
         <f>T179-V179</f>
@@ -42556,9 +42556,9 @@
       <c r="W180" s="88">
         <v>6912</v>
       </c>
-      <c r="X180" s="38" t="str">
+      <c r="X180" s="38">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Y180" s="88">
         <f t="shared" ref="Y180" si="20">T180-V180</f>
